--- a/data/trans_dic/IP33A-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP33A-Habitat-trans_dic.xlsx
@@ -644,7 +644,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -654,62 +654,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>38,87%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>35,48%</t>
+          <t>53,18%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>35,9%</t>
+          <t>75,77%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>29,66%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>41,8%</t>
+          <t>71,95%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>42,0%</t>
+          <t>59,65%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>33,95%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>39,1%</t>
+          <t>60,78%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>38,85%</t>
+          <t>67,86%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -722,62 +722,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22,55; 57,42</t>
+          <t>63,75; 100</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>21,46; 52,05</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,02; 46,74</t>
+          <t>31,05; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,31; 45,4</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>28,85; 54,19</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>31,29; 53,48</t>
+          <t>18,02; 91,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>23,46; 45,72</t>
+          <t>69,43; 100</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>29,93; 49,49</t>
+          <t>19,45; 89,72</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>31,82; 46,47</t>
+          <t>36,13; 88,27</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -924,7 +924,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -934,17 +934,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>42,82%</t>
+          <t>38,87%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>35,41%</t>
+          <t>35,48%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>37,95%</t>
+          <t>35,9%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -954,17 +954,17 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>27,06%</t>
+          <t>29,66%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>43,72%</t>
+          <t>41,8%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>43,47%</t>
+          <t>42,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -974,17 +974,17 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>35,16%</t>
+          <t>33,95%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>39,59%</t>
+          <t>39,1%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>40,8%</t>
+          <t>38,85%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1002,69 +1002,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>30,52; 55,16</t>
+          <t>22,55; 57,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>24,65; 47,21</t>
+          <t>21,46; 52,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>28,38; 48,0</t>
+          <t>25,02; 46,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>0; 30,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,74; 38,11</t>
+          <t>16,31; 45,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>32,42; 56,28</t>
+          <t>28,85; 54,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>33,42; 54,7</t>
+          <t>31,29; 53,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>0; 44,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>26,36; 43,9</t>
+          <t>23,46; 45,72</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>31,42; 47,72</t>
+          <t>29,93; 49,49</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>33,87; 47,92</t>
+          <t>31,82; 46,47</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>0; 20,75</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1074,62 +1074,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>34,76%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>53,18%</t>
+          <t>32,82%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>75,77%</t>
+          <t>27,14%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>37,19%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>71,95%</t>
+          <t>41,79%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>59,65%</t>
+          <t>35,64%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>36,03%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>60,78%</t>
+          <t>37,17%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>67,86%</t>
+          <t>30,82%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1142,69 +1142,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>63,75; 100</t>
+          <t>18,22; 53,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>19,13; 47,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>31,05; 100,0</t>
+          <t>18,33; 38,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 36,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>23,28; 54,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>27,82; 55,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,02; 91,96</t>
+          <t>23,97; 47,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 14,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>69,43; 100</t>
+          <t>25,41; 47,49</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,45; 89,72</t>
+          <t>26,47; 48,67</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>36,13; 88,27</t>
+          <t>23,56; 39,13</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 11,15</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1214,17 +1214,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>34,76%</t>
+          <t>42,82%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>32,82%</t>
+          <t>35,41%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>27,14%</t>
+          <t>37,95%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1234,17 +1234,17 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>37,19%</t>
+          <t>27,06%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>41,79%</t>
+          <t>43,72%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>35,64%</t>
+          <t>43,47%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1254,17 +1254,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>36,03%</t>
+          <t>35,16%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>37,17%</t>
+          <t>39,59%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>30,82%</t>
+          <t>40,8%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1282,17 +1282,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>18,22; 53,97</t>
+          <t>30,52; 55,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>19,13; 47,71</t>
+          <t>24,65; 47,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>18,33; 38,37</t>
+          <t>28,38; 48,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1302,42 +1302,42 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>23,28; 54,08</t>
+          <t>15,74; 38,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>27,82; 55,99</t>
+          <t>32,42; 56,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>23,97; 47,07</t>
+          <t>33,42; 54,7</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>0; 17,08</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>25,41; 47,49</t>
+          <t>26,36; 43,9</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>26,47; 48,67</t>
+          <t>31,42; 47,72</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>23,56; 39,13</t>
+          <t>33,87; 47,92</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>0; 12,61</t>
         </is>
       </c>
     </row>
